--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_moreAlts_empty.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_moreAlts_empty.xlsx
@@ -46,7 +46,7 @@
       <color rgb="ff000000"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -97,11 +97,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ffcde4f7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="ffffffcc"/>
       </patternFill>
     </fill>
@@ -135,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -154,10 +149,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1517,20 +1511,6 @@
       <c r="D8" s="16" t="n"/>
       <c r="E8" s="16" t="n"/>
     </row>
-    <row r="10">
-      <c r="B10" s="8" t="n">
-        <v>0.2609430406361969</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0.1189592698979585</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0.1689279835267223</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0.4511697059391224</v>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
@@ -1544,99 +1524,50 @@
       <c r="F11" s="17" t="inlineStr"/>
       <c r="G11" s="17" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>1Panera</t>
-        </is>
-      </c>
-      <c r="B12" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
-        <v/>
-      </c>
-      <c r="C12" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
-        <v/>
-      </c>
-      <c r="D12" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
-        <v/>
-      </c>
-      <c r="E12" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
-        <v/>
-      </c>
-      <c r="F12" s="18">
-        <f>sumproduct(B12:E12,B10:E10)</f>
-        <v/>
-      </c>
-      <c r="G12" s="19">
-        <f>F12/sum(F12:F18)</f>
-        <v/>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>2Primanti</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="8" t="n">
         <v>0.2609430406361969</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.1189592698979585</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="8" t="n">
         <v>0.1689279835267223</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="8" t="n">
         <v>0.4511697059391224</v>
       </c>
-      <c r="F13" s="21" t="inlineStr">
+      <c r="F13" s="18" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="G13" s="21" t="inlineStr">
+      <c r="G13" s="18" t="inlineStr">
         <is>
           <t>PRIORITIES</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>3Subway</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C14" s="20" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D14" s="20" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E14" s="20" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
-      </c>
-      <c r="F14" s="18">
-        <f>sumproduct(B14:E14,B10:E10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="19">
-        <f>F14/sum(F12:F18)</f>
-        <v/>
       </c>
     </row>
     <row r="15">
@@ -1661,11 +1592,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19">
         <f>sumproduct(B15:E15,B13:E13)</f>
         <v/>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="20">
         <f>F15/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1692,11 +1623,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <f>sumproduct(B16:E16,B13:E13)</f>
         <v/>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="20">
         <f>F16/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1723,11 +1654,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <f>sumproduct(B17:E17,B13:E13)</f>
         <v/>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="20">
         <f>F17/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1754,11 +1685,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E5,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <f>sumproduct(B18:E18,B13:E13)</f>
         <v/>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="20">
         <f>F18/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1785,11 +1716,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E6,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <f>sumproduct(B19:E19,B13:E13)</f>
         <v/>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="20">
         <f>F19/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1816,11 +1747,11 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E7,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <f>sumproduct(B20:E20,B13:E13)</f>
         <v/>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="20">
         <f>F20/sum(F15:F21)</f>
         <v/>
       </c>
@@ -1847,17 +1778,101 @@
         <f>INDEX(rating_scales!H29:H31, MATCH(E8,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <f>sumproduct(B21:E21,B13:E13)</f>
         <v/>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="20">
         <f>F21/sum(F15:F21)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="56">
+  <dataValidations count="84">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>

--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_moreAlts_empty.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_moreAlts_empty.xlsx
@@ -1514,7 +1514,7 @@
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B11" s="17" t="inlineStr"/>
@@ -1788,7 +1788,91 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="84">
+  <dataValidations count="112">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
